--- a/pred_ohlcv/54_21/2020-01-15 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 HYC ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-6316994.6464</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-6289467.5782</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-6315496.3109</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-6315237.3109</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-6316278.2707</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-7046016.977600001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-6530576.5036</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-6471368.100937323</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-4511500.163137322</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-4532091.312937322</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-4697091.312937322</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-4700556.911737322</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-4720852.345637321</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4480007.369737321</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-4787269.26963732</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-4843165.24453732</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-4843165.24453732</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4843165.24453732</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-5057573.92773732</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4950313.39183732</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-5087705.825820045</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-5142137.508520044</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-5196338.736720044</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-5061183.108620044</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-4885589.838520044</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-5207628.865620043</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-4778125.843520043</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 HYC ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>-6289467.5782</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-6315496.3109</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-6301538.768100001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-6301538.768100001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-6301538.768100001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-6301538.768100001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-6267973.778800001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-5206456.286100001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-7046016.977600001</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-7046016.977600001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-7046016.977600001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-6498980.3167</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-6498980.3167</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-6555196.5932</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-6471368.100937323</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-4511500.163137322</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-4532091.312937322</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-4700556.911737322</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-4720852.345637321</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-4561601.503637321</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-4622709.899937321</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4480007.369737321</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-4479754.369737321</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-4500183.39233732</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-4500183.39233732</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-4499928.39233732</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-4522757.30023732</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-4787269.26963732</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-4843165.24453732</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-4843165.24453732</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4843165.24453732</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-5057573.92773732</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4950313.39183732</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-5087705.825820045</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-5142137.508520044</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-5196338.736720044</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-5061183.108620044</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-4885589.838520044</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
